--- a/Excel Data/LockerSurrender.xlsx
+++ b/Excel Data/LockerSurrender.xlsx
@@ -30,7 +30,7 @@
     <t>Tester</t>
   </si>
   <si>
-    <t>OR.0026.0031</t>
+    <t>OR.0046.0031</t>
   </si>
 </sst>
 </file>
